--- a/Test_Case_Document.xlsx
+++ b/Test_Case_Document.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>A unique user profile should be created.</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Tester Akash</t>
@@ -533,7 +530,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +553,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -629,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -664,9 +655,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1436,1932 +1424,1932 @@
         <v>104</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" ht="69.0" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" ht="69.0" customHeight="1">
       <c r="A22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>103</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="18"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="18"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="18"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="18"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="18"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="18"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="18"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="18"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="18"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="18"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="18"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="18"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="18"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="18"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="18"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="18"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="18"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="18"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="18"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="18"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="18"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="18"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="18"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="18"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="17"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="18"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="17"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="18"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="17"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="18"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="17"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="18"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="17"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="18"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="17"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="18"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="17"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="18"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="17"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="18"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="17"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="18"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="17"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="18"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="17"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="18"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="17"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="18"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="17"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="18"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="17"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="18"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="17"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="18"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="18"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="17"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="18"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="17"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="18"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="17"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="18"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="17"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="18"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="17"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="18"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="17"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="18"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="17"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="18"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="17"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="18"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="17"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="18"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="17"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="I135" s="18"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="17"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="18"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="17"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="18"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="17"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="18"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="17"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="18"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="17"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="18"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="17"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="18"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="17"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="18"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="17"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="18"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="17"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="18"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="17"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="18"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="17"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="18"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="17"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="18"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="17"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="18"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="17"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="18"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="17"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="18"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="17"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="18"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="17"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="18"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="17"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="18"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="17"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="18"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="17"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="18"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="17"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="18"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="17"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="18"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="17"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="18"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="17"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="18"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="17"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="18"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="17"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="18"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="17"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="18"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="17"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="18"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="17"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="18"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="17"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="18"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="17"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="18"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="17"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="18"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="17"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="18"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="17"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="18"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="17"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="18"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="17"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="18"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="17"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="18"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="17"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="18"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="17"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="18"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="17"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="18"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="17"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="18"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="17"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="18"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="17"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="18"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="17"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="18"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="17"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-      <c r="I180" s="18"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="17"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="18"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="17"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="18"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="17"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="18"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="17"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="18"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="17"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="18"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="17"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="18"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="17"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="18"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="17"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="18"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="17"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="18"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="17"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="18"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="17"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="18"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="17"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="18"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="17"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="18"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="17"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="18"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="17"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="18"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="17"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="18"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="17"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="18"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="17"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="18"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="17"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="18"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="17"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="18"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="17"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="18"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="17"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="18"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="17"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="18"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="17"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="18"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="17"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="18"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="17"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="18"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="17"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="17"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="18"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="17"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-      <c r="I208" s="18"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="17"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="18"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209" s="17"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="18"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="17"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="18"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="17"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="18"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="17"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="18"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="17"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="18"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="17"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="18"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="18"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="17"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="18"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="17"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="18"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="17"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="18"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="17"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="18"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="17"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="18"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="17"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="17"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="18"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="17"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="17"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="18"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="17"/>
     </row>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
